--- a/config_10.19/shoping_config_cjj.xlsx
+++ b/config_10.19/shoping_config_cjj.xlsx
@@ -10505,10 +10505,10 @@
   <dimension ref="A1:AIG724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="J628" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X628" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A635" sqref="A635:XFD646"/>
+      <selection pane="bottomRight" activeCell="AB635" sqref="AB635:AB646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -59320,9 +59320,6 @@
       <c r="AA635" s="30">
         <v>1635177599</v>
       </c>
-      <c r="AB635" s="30">
-        <v>80</v>
-      </c>
       <c r="AI635" s="30">
         <v>1</v>
       </c>
@@ -59388,9 +59385,6 @@
       <c r="AA636" s="30">
         <v>1635177599</v>
       </c>
-      <c r="AB636" s="30">
-        <v>80</v>
-      </c>
       <c r="AI636" s="30">
         <v>1</v>
       </c>
@@ -59456,9 +59450,6 @@
       <c r="AA637" s="30">
         <v>1635177599</v>
       </c>
-      <c r="AB637" s="30">
-        <v>80</v>
-      </c>
       <c r="AI637" s="30">
         <v>1</v>
       </c>
@@ -59524,9 +59515,6 @@
       <c r="AA638" s="30">
         <v>1635177599</v>
       </c>
-      <c r="AB638" s="30">
-        <v>81</v>
-      </c>
       <c r="AI638" s="30">
         <v>1</v>
       </c>
@@ -59592,9 +59580,6 @@
       <c r="AA639" s="30">
         <v>1635177599</v>
       </c>
-      <c r="AB639" s="30">
-        <v>81</v>
-      </c>
       <c r="AI639" s="30">
         <v>1</v>
       </c>
@@ -59660,9 +59645,6 @@
       <c r="AA640" s="30">
         <v>1635177599</v>
       </c>
-      <c r="AB640" s="30">
-        <v>81</v>
-      </c>
       <c r="AI640" s="30">
         <v>1</v>
       </c>
@@ -59728,9 +59710,6 @@
       <c r="AA641" s="30">
         <v>1635177599</v>
       </c>
-      <c r="AB641" s="30">
-        <v>82</v>
-      </c>
       <c r="AI641" s="30">
         <v>1</v>
       </c>
@@ -59796,9 +59775,6 @@
       <c r="AA642" s="30">
         <v>1635177599</v>
       </c>
-      <c r="AB642" s="30">
-        <v>82</v>
-      </c>
       <c r="AI642" s="30">
         <v>1</v>
       </c>
@@ -59864,9 +59840,6 @@
       <c r="AA643" s="30">
         <v>1635177599</v>
       </c>
-      <c r="AB643" s="30">
-        <v>82</v>
-      </c>
       <c r="AI643" s="30">
         <v>1</v>
       </c>
@@ -59932,9 +59905,6 @@
       <c r="AA644" s="30">
         <v>1635177599</v>
       </c>
-      <c r="AB644" s="30">
-        <v>83</v>
-      </c>
       <c r="AI644" s="30">
         <v>1</v>
       </c>
@@ -60000,9 +59970,6 @@
       <c r="AA645" s="30">
         <v>1635177599</v>
       </c>
-      <c r="AB645" s="30">
-        <v>83</v>
-      </c>
       <c r="AI645" s="30">
         <v>1</v>
       </c>
@@ -60067,9 +60034,6 @@
       </c>
       <c r="AA646" s="30">
         <v>1635177599</v>
-      </c>
-      <c r="AB646" s="30">
-        <v>83</v>
       </c>
       <c r="AI646" s="30">
         <v>1</v>
